--- a/medicine/Psychotrope/Homard_à_l'américaine/Homard_à_l'américaine.xlsx
+++ b/medicine/Psychotrope/Homard_à_l'américaine/Homard_à_l'américaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Homard_%C3%A0_l%27am%C3%A9ricaine</t>
+          <t>Homard_à_l'américaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le homard à l'américaine ou homard à l'armoricaine est une spécialité culinaire gastronomique traditionnelle des cuisine parisienne et gastronomie française, à base de homard (ou de langouste) à la sauce américaine[2],[3] (huile d'olive, beurre, sauce tomate, oignon, échalote, ail, vin blanc, et cognac...)[4],[5]. 
+Le homard à l'américaine ou homard à l'armoricaine est une spécialité culinaire gastronomique traditionnelle des cuisine parisienne et gastronomie française, à base de homard (ou de langouste) à la sauce américaine, (huile d'olive, beurre, sauce tomate, oignon, échalote, ail, vin blanc, et cognac...),. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Homard_%C3%A0_l%27am%C3%A9ricaine</t>
+          <t>Homard_à_l'américaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le célèbre critique culinaire français Curnonsky attribue la création de cette recette gastronomique au chef cuisinier français Pierre Fraysse (natif de Sète dans le Languedoc) qui, après avoir travaillé un temps comme chef cuisinier au Café Américain de Chicago aux États-Unis, ouvre avec succès, en 1854, son restaurant gastronomique Chez Peter's, du passage des Princes sur le boulevard des Italiens, du 2e arrondissement de Paris[6] (baptisé de son prénom américanisé, rapport à son précédent séjour). Il crée avec succès cette recette de « Homard à l'américaine » en 1860, or, une précédente recette similaire de « homard à la languedocienne servi avec sa sauce américaine » connue sous le nom de « homard Bonnefoy » est connue depuis 1853, à la carte du restaurant Bonnefoy, du chef cuisinier provençal Constant Guillot[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le célèbre critique culinaire français Curnonsky attribue la création de cette recette gastronomique au chef cuisinier français Pierre Fraysse (natif de Sète dans le Languedoc) qui, après avoir travaillé un temps comme chef cuisinier au Café Américain de Chicago aux États-Unis, ouvre avec succès, en 1854, son restaurant gastronomique Chez Peter's, du passage des Princes sur le boulevard des Italiens, du 2e arrondissement de Paris (baptisé de son prénom américanisé, rapport à son précédent séjour). Il crée avec succès cette recette de « Homard à l'américaine » en 1860, or, une précédente recette similaire de « homard à la languedocienne servi avec sa sauce américaine » connue sous le nom de « homard Bonnefoy » est connue depuis 1853, à la carte du restaurant Bonnefoy, du chef cuisinier provençal Constant Guillot,.
 Le Larousse gastronomique de 1938, du chef cuisinier Prosper Montagné, publie cette recette, par erreur de rédaction, sous le nom de « Homard à l'armoricaine » (restée depuis dans l'histoire de la cuisine française).
-La recette est généralement réalisée avec du homard breton (d'Armorique, important producteur de homard européen), ou du homard américain (ou canadien)[9],[10], avec des recettes de « homard armoricain à l’américaine » ou de « homard américain à l'armoricaine »[11],[12],[13]...
+La recette est généralement réalisée avec du homard breton (d'Armorique, important producteur de homard européen), ou du homard américain (ou canadien) avec des recettes de « homard armoricain à l’américaine » ou de « homard américain à l'armoricaine »...
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Homard_%C3%A0_l%27am%C3%A9ricaine</t>
+          <t>Homard_à_l'américaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre les homards, le cognac, et le vin blanc, la réalisation de cette recette nécessite pour la sauce américaine : huile d'olive, beurre, tomates, carotte, oignon, échalotes, ail,  concentré de tomates, laurier, piment de Cayenne, citron, persil, estragon et fumet de poisson[14].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les homards, le cognac, et le vin blanc, la réalisation de cette recette nécessite pour la sauce américaine : huile d'olive, beurre, tomates, carotte, oignon, échalotes, ail,  concentré de tomates, laurier, piment de Cayenne, citron, persil, estragon et fumet de poisson.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Homard_%C3%A0_l%27am%C3%A9ricaine</t>
+          <t>Homard_à_l'américaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir ébouillanté les homards, retirer les pinces, et faire revenir et dorer les morceaux de queue de homard dans une réduction de beurre et d'huile d'olive. Puis faire mijoter le tout dans une cocotte, avec tomates, carotte, oignon, échalotes, ails, vin blanc, et cognac. La sauce peut être relevée de citron, persil, estragon hachés et piment de Cayenne[14],[15]. Le plat peut être flambé au cognac[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir ébouillanté les homards, retirer les pinces, et faire revenir et dorer les morceaux de queue de homard dans une réduction de beurre et d'huile d'olive. Puis faire mijoter le tout dans une cocotte, avec tomates, carotte, oignon, échalotes, ails, vin blanc, et cognac. La sauce peut être relevée de citron, persil, estragon hachés et piment de Cayenne,. Le plat peut être flambé au cognac.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Homard_%C3%A0_l%27am%C3%A9ricaine</t>
+          <t>Homard_à_l'américaine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour accompagner cette recette gastronomique relevée au cognac, il est conseillé traditionnellement de servir un vin blanc de caractère.
 </t>
